--- a/data/trans_camb/P16A05-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A05-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,03</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-1,13; 4,25</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-1,8; 3,49</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-4,73; 4,01</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-6,78; 0,54</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 3,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,27; 1,07</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>60,45%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>32,76%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-1,22%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-42,66%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,93%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-42,84; 433,26</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-56,64; 340,06</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-50,89; 90,13</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-68,38; 17,7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,59; 91,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,56; 36,12</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,65</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 4,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 2,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,72; 7,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 5,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,79; 3,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 6,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 3,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 2,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,64; 5,63</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>165,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,36%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,29; 292,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,53; 216,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,74; 436,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,43; 100,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,71; 75,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,56; 124,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,94; 98,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,34; 68,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,89; 153,96</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,52</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 5,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,22; 3,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 5,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,64; 4,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,23; 8,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,54; 10,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 3,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,8; 5,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,73; 7,14</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,49%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>144,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>770,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1996,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2725,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>187,17%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>319,23%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>492,54%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-46,09; 467,68</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-51,15; 428,5</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 566,94</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,57; 633,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>94,5; 984,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>167,45; 1286,62</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 4,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,79; 5,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,6; 4,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,87; 8,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,2; 8,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 2,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,29; 6,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,69; 5,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 2,39</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>220,78%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>237,25%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>101,71%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>142,13%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>115,71%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,35%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>159,12%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>144,96%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,35%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,42; 1191,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,19; 1423,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,21; 877,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,23; 340,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,39; 307,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,3; 103,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,88; 334,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,11; 324,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,81; 130,29</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,83</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,76</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 5,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 6,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 3,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,09; 16,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,87; 13,03</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 8,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,67; 9,31</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,37; 7,76</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 5,25</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,97%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,43%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>167,4%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,67%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,96%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>143,62%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>116,88%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,56%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,85; 609,73</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,58; 662,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,12; 324,53</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,31; 428,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,91; 332,41</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 246,2</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,52; 354,34</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,03; 266,88</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 197,89</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,05</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 4,3</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 5,48</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,25; 7,23</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 5,42</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 5,59</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,11; 10,82</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 4,17</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 4,56</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,01; 8,19</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>265,85%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>352,23%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>656,08%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,76%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,09%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>229,56%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,06%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,2%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>300,3%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,59; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,89; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>89,58; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,52; 286,01</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,13; 311,11</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>69,9; 581,83</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,41; 304,74</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,44; 379,06</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>121,02; 723,11</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,4</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 2,43</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 2,8</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 3,22</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,42; 1,34</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 4,84</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 5,81</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 1,19</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 3,33</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 4,11</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,26%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,07%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,7%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,58%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,18%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,23%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,8%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,5%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,88; 138,59</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,88; 175,4</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,62; 199,43</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,54; 35,99</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,76; 127,29</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,5; 143,76</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,48; 38,5</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,66; 105,73</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,24; 127,52</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,76; -0,0</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; 0,59</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 2,52</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; 2,02</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 3,42</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,65; 6,98</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,81; 0,61</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 1,52</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 3,76</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,12%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,85%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,87%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,68%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,31%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,76%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,71%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,58; 4,8</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,1; 17,86</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,73; 71,24</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,62; 31,61</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,52; 54,59</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,65; 109,41</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,53; 12,34</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,46; 28,93</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 71,65</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,65</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 1,63</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 1,76</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,93; 2,75</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 2,94</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,09; 3,53</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,91; 4,45</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 2,11</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,91; 2,34</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,84; 3,4</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,86%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,95%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,69%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,24%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,3%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,63%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,88%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,53%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,31; 72,44</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,01; 81,56</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,01; 124,62</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,32; 60,61</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,47; 72,34</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,02; 94,38</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,89; 56,63</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,4; 63,43</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,0; 94,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A05-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-1,2</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 7,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 3,49</t>
+          <t>-1,93; 3,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,11; 6,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 0,54</t>
+          <t>-6,83; 0,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 6,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 1,07</t>
+          <t>-3,4; 0,95</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>178,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>25,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-42,66%</t>
+          <t>-44,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-22,93%</t>
+          <t>-26,68%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,68; 689,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-56,64; 340,06</t>
+          <t>-60,05; 315,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,04; 145,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-68,38; 17,7</t>
+          <t>-69,8; 13,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 183,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-54,56; 36,12</t>
+          <t>-56,71; 30,96</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>3,45</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 7,13</t>
+          <t>1,55; 6,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 6,15</t>
+          <t>0,24; 6,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,63</t>
+          <t>1,47; 5,42</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>165,56%</t>
+          <t>156,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>48,87%</t>
+          <t>48,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>80,36%</t>
+          <t>75,92%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>40,74; 436,7</t>
+          <t>36,71; 424,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 124,46</t>
+          <t>2,6; 124,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,89; 153,96</t>
+          <t>24,77; 148,61</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,52</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,28</t>
+          <t>5,16</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 5,6</t>
+          <t>0,14; 5,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,54; 10,25</t>
+          <t>5,46; 10,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,73; 7,14</t>
+          <t>3,63; 7,0</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>144,38%</t>
+          <t>140,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2725,12%</t>
+          <t>2689,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>492,54%</t>
+          <t>481,37%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 566,94</t>
+          <t>-3,5; 556,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>167,45; 1286,62</t>
+          <t>163,8; 1254,53</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,58</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,28</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 4,97</t>
+          <t>-0,8; 3,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 4,31</t>
+          <t>-0,63; 4,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,87; 8,89</t>
+          <t>2,8; 9,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,33</t>
+          <t>-3,36; 1,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,02</t>
+          <t>1,71; 6,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,39</t>
+          <t>-1,24; 1,92</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>220,78%</t>
+          <t>84,46%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>101,71%</t>
+          <t>98,15%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>142,13%</t>
+          <t>160,99%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,35%</t>
+          <t>-19,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>159,12%</t>
+          <t>142,98%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>10,64%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 1191,27</t>
+          <t>-59,99; 754,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-59,21; 877,18</t>
+          <t>-60,83; 852,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>47,23; 340,67</t>
+          <t>45,66; 368,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-46,3; 103,35</t>
+          <t>-63,59; 56,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>59,88; 334,94</t>
+          <t>38,71; 335,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-27,81; 130,29</t>
+          <t>-38,87; 108,21</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>2,79</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 3,05</t>
+          <t>-2,46; 3,07</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,23; 8,28</t>
+          <t>0,3; 8,42</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 5,25</t>
+          <t>0,08; 5,21</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>76,96%</t>
+          <t>78,54%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>67,56%</t>
+          <t>68,27%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-69,12; 324,53</t>
+          <t>-69,43; 319,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 246,2</t>
+          <t>1,25; 256,93</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 197,89</t>
+          <t>-0,79; 199,75</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>5,91</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,23</t>
+          <t>2,19; 7,06</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,11; 10,82</t>
+          <t>4,08; 10,76</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,01; 8,19</t>
+          <t>3,86; 7,97</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>656,08%</t>
+          <t>640,35%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>229,56%</t>
+          <t>228,07%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>300,3%</t>
+          <t>293,42%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>89,58; —</t>
+          <t>82,96; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>69,9; 581,83</t>
+          <t>69,29; 579,25</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>121,02; 723,11</t>
+          <t>117,28; 710,37</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>1,78</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,22</t>
+          <t>-0,87; 3,06</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 5,81</t>
+          <t>-2,34; 5,12</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,11</t>
+          <t>-0,63; 3,5</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>48,07%</t>
+          <t>43,18%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>61,18%</t>
+          <t>39,39%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>62,5%</t>
+          <t>46,31%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 199,43</t>
+          <t>-31,63; 190,3</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 143,76</t>
+          <t>-36,22; 120,54</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>10,24; 127,52</t>
+          <t>-12,24; 107,59</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>0,89</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 2,52</t>
+          <t>-3,67; 1,63</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,65; 6,98</t>
+          <t>0,6; 6,78</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>0,01; 3,76</t>
+          <t>-2,16; 2,92</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>-12,42%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>43,68%</t>
+          <t>43,56%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>30,71%</t>
+          <t>14,52%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-31,73; 71,24</t>
+          <t>-66,87; 40,79</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>5,65; 109,41</t>
+          <t>5,4; 107,05</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 71,65</t>
+          <t>-29,82; 53,38</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>2,1</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,75</t>
+          <t>0,33; 2,44</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,45</t>
+          <t>1,05; 3,92</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,4</t>
+          <t>1,13; 2,93</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>72,95%</t>
+          <t>58,75%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>60,3%</t>
+          <t>49,21%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>66,53%</t>
+          <t>52,85%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>31,01; 124,62</t>
+          <t>11,21; 108,92</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>33,02; 94,38</t>
+          <t>19,41; 82,63</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>43,0; 94,34</t>
+          <t>26,53; 80,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A05-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 7,54</t>
+          <t>1,05; 8,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 4,25</t>
+          <t>-1,17; 4,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 3,22</t>
+          <t>-2,0; 2,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 6,47</t>
+          <t>-2,91; 6,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 4,01</t>
+          <t>-4,12; 4,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 0,39</t>
+          <t>-6,83; 0,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 6,17</t>
+          <t>-0,17; 5,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 3,06</t>
+          <t>-1,91; 3,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 0,95</t>
+          <t>-3,57; 0,86</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,68; 689,82</t>
+          <t>17,57; 667,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,84; 433,26</t>
+          <t>-42,12; 391,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-60,05; 315,54</t>
+          <t>-61,18; 241,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,04; 145,27</t>
+          <t>-34,17; 139,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,89; 90,13</t>
+          <t>-48,55; 106,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,8; 13,69</t>
+          <t>-70,26; 7,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 183,23</t>
+          <t>-5,37; 174,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,59; 91,31</t>
+          <t>-34,59; 109,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-56,71; 30,96</t>
+          <t>-58,66; 29,04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 4,19</t>
+          <t>-1,17; 4,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,91</t>
+          <t>-1,25; 2,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 6,86</t>
+          <t>1,18; 6,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 5,09</t>
+          <t>-1,27; 5,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 3,8</t>
+          <t>-2,85; 3,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 6,11</t>
+          <t>-0,07; 5,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,85</t>
+          <t>-0,65; 3,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 2,57</t>
+          <t>-1,21; 2,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,42</t>
+          <t>1,43; 5,6</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,29; 292,38</t>
+          <t>-42,68; 280,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-40,53; 216,18</t>
+          <t>-42,37; 221,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,71; 424,31</t>
+          <t>25,93; 455,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,43; 100,22</t>
+          <t>-15,73; 105,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,71; 75,32</t>
+          <t>-34,22; 72,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 124,27</t>
+          <t>-1,28; 116,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 98,94</t>
+          <t>-11,78; 103,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 68,28</t>
+          <t>-21,94; 75,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,77; 148,61</t>
+          <t>26,65; 166,66</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 5,1</t>
+          <t>-0,49; 5,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 3,97</t>
+          <t>-0,84; 4,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 5,49</t>
+          <t>0,14; 5,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 4,23</t>
+          <t>0,88; 4,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 8,08</t>
+          <t>3,36; 8,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,46; 10,1</t>
+          <t>5,23; 9,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,91</t>
+          <t>0,48; 3,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 5,26</t>
+          <t>1,87; 5,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,0</t>
+          <t>3,54; 7,16</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-46,09; 467,68</t>
+          <t>-35,42; 507,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-51,15; 428,5</t>
+          <t>-41,42; 488,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 556,71</t>
+          <t>-5,41; 567,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,57; 633,88</t>
+          <t>9,61; 638,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>94,5; 984,99</t>
+          <t>91,92; 946,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>163,8; 1254,53</t>
+          <t>159,05; 1391,7</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 3,62</t>
+          <t>-0,87; 3,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 5,84</t>
+          <t>0,81; 5,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 4,32</t>
+          <t>-0,65; 3,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,8; 9,77</t>
+          <t>2,94; 9,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 8,13</t>
+          <t>1,31; 8,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 1,54</t>
+          <t>-3,38; 1,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,24</t>
+          <t>1,83; 6,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,98</t>
+          <t>1,78; 6,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,92</t>
+          <t>-1,51; 1,98</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-59,99; 754,83</t>
+          <t>-63,26; 672,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,19; 1423,91</t>
+          <t>-8,23; 1059,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-60,83; 852,65</t>
+          <t>-57,83; 752,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>45,66; 368,11</t>
+          <t>45,7; 345,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,39; 307,18</t>
+          <t>21,38; 334,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-63,59; 56,47</t>
+          <t>-62,96; 69,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>38,71; 335,97</t>
+          <t>44,31; 328,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>42,11; 324,81</t>
+          <t>43,94; 332,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-38,87; 108,21</t>
+          <t>-42,41; 105,15</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 5,37</t>
+          <t>-1,19; 5,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 6,03</t>
+          <t>-1,17; 5,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 3,07</t>
+          <t>-2,02; 2,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,09; 16,26</t>
+          <t>4,36; 16,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,87; 13,03</t>
+          <t>1,84; 13,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,3; 8,42</t>
+          <t>0,23; 8,55</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,67; 9,31</t>
+          <t>2,2; 9,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,76</t>
+          <t>1,69; 8,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 5,21</t>
+          <t>0,15; 5,11</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-50,85; 609,73</t>
+          <t>-50,66; 645,38</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-39,58; 662,36</t>
+          <t>-48,34; 494,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-69,43; 319,15</t>
+          <t>-61,24; 389,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>40,31; 428,67</t>
+          <t>42,57; 506,17</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>12,91; 332,41</t>
+          <t>16,19; 353,33</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>1,25; 256,93</t>
+          <t>2,02; 274,67</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>39,52; 354,34</t>
+          <t>37,28; 347,01</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>18,03; 266,88</t>
+          <t>24,31; 303,33</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 199,75</t>
+          <t>-0,56; 183,21</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,08; 4,3</t>
+          <t>0,03; 4,09</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,4; 5,48</t>
+          <t>0,36; 5,39</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,19; 7,06</t>
+          <t>2,02; 6,98</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 5,42</t>
+          <t>-1,5; 5,68</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 5,59</t>
+          <t>-1,22; 5,53</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,08; 10,76</t>
+          <t>4,0; 10,95</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,01; 4,17</t>
+          <t>-0,04; 4,1</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,26; 4,56</t>
+          <t>0,19; 4,31</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,97</t>
+          <t>3,77; 8,05</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-43,59; —</t>
+          <t>-59,98; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-42,89; —</t>
+          <t>-36,82; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>82,96; —</t>
+          <t>55,4; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-33,52; 286,01</t>
+          <t>-33,48; 333,71</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-32,13; 311,11</t>
+          <t>-32,23; 334,5</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>69,29; 579,25</t>
+          <t>65,8; 654,82</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 304,74</t>
+          <t>-11,51; 310,0</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1,44; 379,06</t>
+          <t>1,67; 337,32</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>117,28; 710,37</t>
+          <t>111,48; 667,99</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 2,43</t>
+          <t>-1,54; 2,32</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,8</t>
+          <t>-1,0; 2,98</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 3,06</t>
+          <t>-0,94; 2,91</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 1,34</t>
+          <t>-3,27; 1,55</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 4,84</t>
+          <t>-0,38; 4,92</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 5,12</t>
+          <t>-2,51; 5,1</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 1,19</t>
+          <t>-1,73; 1,23</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 3,33</t>
+          <t>0,08; 3,33</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 3,5</t>
+          <t>-0,69; 3,53</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-42,88; 138,59</t>
+          <t>-45,86; 129,12</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-30,88; 175,4</t>
+          <t>-33,31; 170,03</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-31,63; 190,3</t>
+          <t>-28,8; 165,63</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-52,54; 35,99</t>
+          <t>-51,27; 45,23</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 127,29</t>
+          <t>-7,25; 130,68</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-36,22; 120,54</t>
+          <t>-37,9; 116,3</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-37,48; 38,5</t>
+          <t>-38,51; 40,94</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 105,73</t>
+          <t>-0,56; 105,11</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 107,59</t>
+          <t>-13,29; 108,23</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,76; -0,0</t>
+          <t>-3,67; 0,33</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 0,59</t>
+          <t>-3,17; 0,83</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 1,63</t>
+          <t>-3,41; 1,86</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 2,02</t>
+          <t>-3,27; 2,16</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 3,42</t>
+          <t>-2,3; 3,4</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,78</t>
+          <t>0,48; 6,65</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 0,61</t>
+          <t>-2,82; 0,61</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 1,52</t>
+          <t>-1,93; 1,64</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 2,92</t>
+          <t>-2,15; 3,01</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-68,58; 4,8</t>
+          <t>-67,0; 9,73</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-58,1; 17,86</t>
+          <t>-59,42; 26,42</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-66,87; 40,79</t>
+          <t>-62,41; 46,76</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-36,62; 31,61</t>
+          <t>-35,54; 34,97</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 54,59</t>
+          <t>-25,81; 52,51</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>5,4; 107,05</t>
+          <t>4,17; 105,89</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-39,53; 12,34</t>
+          <t>-39,39; 14,35</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-29,46; 28,93</t>
+          <t>-28,33; 31,92</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-29,82; 53,38</t>
+          <t>-29,05; 54,45</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,63</t>
+          <t>-0,06; 1,67</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,76</t>
+          <t>0,14; 1,8</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,44</t>
+          <t>0,42; 2,53</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,94</t>
+          <t>0,63; 2,86</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,53</t>
+          <t>1,17; 3,55</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,92</t>
+          <t>1,0; 3,79</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,11</t>
+          <t>0,58; 2,07</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,34</t>
+          <t>0,9; 2,36</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,93</t>
+          <t>1,17; 2,94</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 72,44</t>
+          <t>-2,32; 77,42</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>3,01; 81,56</t>
+          <t>4,03; 81,07</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>11,21; 108,92</t>
+          <t>13,21; 112,3</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>8,32; 60,61</t>
+          <t>10,35; 58,08</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>17,47; 72,34</t>
+          <t>19,88; 74,19</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>19,41; 82,63</t>
+          <t>19,05; 79,45</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>12,89; 56,63</t>
+          <t>13,69; 56,02</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>20,4; 63,43</t>
+          <t>21,77; 65,12</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>26,53; 80,78</t>
+          <t>28,13; 81,43</t>
         </is>
       </c>
     </row>
